--- a/sample_rsu_sales.xlsx
+++ b/sample_rsu_sales.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloudnamaste/Documents/Code/financialplanner/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68674E89-5475-DC4E-BCD7-6B2FC38FAC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="32260" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sell Date</t>
   </si>
@@ -22,23 +28,53 @@
     <t>Shares Sold</t>
   </si>
   <si>
-    <t>Sale Price (AUD)</t>
-  </si>
-  <si>
-    <t>FMV at Vesting (AUD)</t>
-  </si>
-  <si>
     <t>Held &gt; 12 Months</t>
+  </si>
+  <si>
+    <t>GrantID</t>
+  </si>
+  <si>
+    <t>AUD001</t>
+  </si>
+  <si>
+    <t>AUD002</t>
+  </si>
+  <si>
+    <t>AUD003</t>
+  </si>
+  <si>
+    <t>AUD004</t>
+  </si>
+  <si>
+    <t>AUD005</t>
+  </si>
+  <si>
+    <t>AUD006</t>
+  </si>
+  <si>
+    <t>AUD007</t>
+  </si>
+  <si>
+    <t>AUD008</t>
+  </si>
+  <si>
+    <t>AUD009</t>
+  </si>
+  <si>
+    <t>Sale Price</t>
+  </si>
+  <si>
+    <t>FMV at Vesting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +86,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,13 +144,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +196,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -180,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -214,9 +265,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,65 +441,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>105</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>110</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>155</v>
+      </c>
+      <c r="E5">
         <v>115</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>155</v>
+      </c>
+      <c r="E6">
         <v>120</v>
       </c>
-      <c r="D3">
-        <v>105</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>155</v>
+      </c>
+      <c r="E7">
+        <v>125</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>155</v>
+      </c>
+      <c r="E8">
+        <v>130</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>155</v>
+      </c>
+      <c r="E9">
+        <v>135</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>155</v>
+      </c>
+      <c r="E10">
+        <v>140</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>